--- a/software/scccheck/SCC_Freqency.xlsx
+++ b/software/scccheck/SCC_Freqency.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Freq. to Reg." sheetId="1" r:id="rId1"/>
+    <sheet name="Reg. to Freq." sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>CPU Clock</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +64,10 @@
   </si>
   <si>
     <t>1sample time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Play Freq.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -431,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,4 +523,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(C2+C3*256)+1</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.5790000000000002</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <f>1000000/C11</f>
+        <v>1720.6730769230769</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <f>C5*32/C7</f>
+        <v>581.16792400111763</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C11/32</f>
+        <v>18.161497625034926</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/software/scccheck/SCC_Freqency.xlsx
+++ b/software/scccheck/SCC_Freqency.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Freq. to Reg." sheetId="1" r:id="rId1"/>
     <sheet name="Reg. to Freq." sheetId="2" r:id="rId2"/>
+    <sheet name="μsec to clock" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>CPU Clock</t>
     <phoneticPr fontId="1"/>
@@ -68,6 +69,26 @@
   </si>
   <si>
     <t>Play Freq.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>μsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time of 1clock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clock of target time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clock</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -437,7 +458,7 @@
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -529,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -560,7 +581,7 @@
       </c>
       <c r="C5" s="2">
         <f>(C2+C3*256)+1</f>
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
@@ -580,7 +601,7 @@
       </c>
       <c r="C9" s="1">
         <f>1000000/C11</f>
-        <v>1720.6730769230769</v>
+        <v>6579.0441176470595</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -592,7 +613,7 @@
       </c>
       <c r="C11" s="1">
         <f>C5*32/C7</f>
-        <v>581.16792400111763</v>
+        <v>151.99776473875383</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -604,10 +625,76 @@
       </c>
       <c r="C12" s="1">
         <f>C11/32</f>
-        <v>18.161497625034926</v>
+        <v>4.7499301480860572</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.5790000000000002</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>581.1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <f>1/C2</f>
+        <v>0.27940765576976806</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <f>C4/C6</f>
+        <v>2079.7569000000003</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/software/scccheck/SCC_Freqency.xlsx
+++ b/software/scccheck/SCC_Freqency.xlsx
@@ -113,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +179,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +467,7 @@
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:XFD1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -481,7 +490,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>880</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -501,7 +510,7 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <f>MOD(C6-1,256)</f>
         <v>126</v>
       </c>
@@ -510,7 +519,7 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <f>((C6-1)-C8)/256</f>
         <v>0</v>
       </c>
@@ -551,7 +560,7 @@
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,7 +652,7 @@
   <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>581.1</v>
+        <v>8.9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -691,7 +700,7 @@
       </c>
       <c r="C8" s="1">
         <f>C4/C6</f>
-        <v>2079.7569000000003</v>
+        <v>31.853100000000005</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
